--- a/DbBackup/ProductsAndImages.xlsx
+++ b/DbBackup/ProductsAndImages.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muna\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\muna\Desktop\"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691527B-9F7F-4071-8099-1C4776A67065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" r:id="rId1" name="Sheet1"/>
+    <sheet sheetId="2" r:id="rId2" name="Sheet2"/>
+    <sheet sheetId="3" r:id="rId3" name="Sheet3"/>
+    <sheet r:id="rId9" sheetId="4" name="Images2"/>
+    <sheet r:id="rId10" sheetId="5" name="Products"/>
+    <sheet r:id="rId11" sheetId="6" name="Products2"/>
+    <sheet r:id="rId12" name="Productsss" sheetId="7"/>
   </sheets>
   <definedNames>
-    <definedName name="Images" localSheetId="1" hidden="1">Sheet2!$A$1:$C$31</definedName>
-    <definedName name="Products">#REF!</definedName>
-    <definedName name="Products_1" localSheetId="2" hidden="1">Sheet3!$A$1:$I$15</definedName>
+    <definedName name="Images" localSheetId="1">'Sheet2'!$A$1:$C$31</definedName>
+    <definedName name="Products_1" localSheetId="2">'Sheet3'!$A$1:$I$15</definedName>
+    <definedName name="Images2">'Images2'!$A$1:$C$44</definedName>
+    <definedName name="Products">'Products'!$A$1:$J$1</definedName>
+    <definedName name="Products2">'Products2'!$A$1:$J$1</definedName>
+    <definedName name="Productsss">'Productsss'!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1465,4 +1468,928 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Src</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>ProductId</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/3.jpg</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/28.jpg</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/2.jpg</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/7.jpg</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/9.jpg</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/4.jpg</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/5.jpg</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/6.jpg</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/2.jpg</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/7.jpg</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/12.jpg</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/9.jpg</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/1.jpg</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/31.jpg</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/34.jpg</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/22.jpg</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/17.jpg</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/20.jpg</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/23.jpg</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/30.jpg</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/26.jpg</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/15.jpg</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/18.jpg</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/32.jpg</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/27.jpg</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/11.jpg</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/6.jpg</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/10.jpg</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/5.jpg</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/32.jpg</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/32.jpg</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/5.jpg</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/9.jpg</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/7.jpg</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/6.jpg</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/5.jpg</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/28.jpg</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/18.jpg</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/14.jpg</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/8.jpg</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/9.jpg</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/2.jpg</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>/images/product/3.jpg</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Title_EN</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Title_AR</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Details_EN</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Details_AR</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>CategoryID</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>OwnerId</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr"/>
+      <c r="B1" s="0" t="inlineStr"/>
+      <c r="C1" s="0" t="inlineStr"/>
+      <c r="D1" s="0" t="inlineStr"/>
+      <c r="E1" s="0" t="inlineStr"/>
+      <c r="F1" s="0" t="inlineStr"/>
+      <c r="G1" s="0" t="inlineStr"/>
+      <c r="H1" s="0" t="inlineStr"/>
+      <c r="I1" s="0" t="inlineStr"/>
+      <c r="J1" s="0" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Title_EN</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Title_AR</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Details_EN</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Details_AR</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>CategoryID</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>OwnerId</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>